--- a/tablas/AutonomíadelRbot.xlsx
+++ b/tablas/AutonomíadelRbot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">Componente</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">IMU MPU6050</t>
   </si>
   <si>
-    <t xml:space="preserve">Fotoreceptor-Fotoemisor Impresora</t>
+    <t xml:space="preserve">Fotoreceptor-Fotoemisor Encoder</t>
   </si>
   <si>
     <t xml:space="preserve">Comparador LM311</t>
@@ -67,25 +67,7 @@
     <t xml:space="preserve">Mini DC Buck Converter MP2307</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12v@500mA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">12v@500mA </t>
   </si>
   <si>
     <t xml:space="preserve">Total ($)</t>
@@ -97,19 +79,19 @@
     <t xml:space="preserve">https://www.pidramble.com/wiki/benchmarks/power-consumption</t>
   </si>
   <si>
-    <t xml:space="preserve"> Voltaje (V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ipromedio (mA)</t>
+    <t xml:space="preserve"> Vin (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ipr (mA)</t>
   </si>
   <si>
     <t xml:space="preserve">Itotal (mA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Iload Aprox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumo Buck1 (W)</t>
+    <t xml:space="preserve">Iload (mA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo Buck 1 (W)</t>
   </si>
   <si>
     <t xml:space="preserve">Perdidas por Conversión</t>
@@ -118,7 +100,7 @@
     <t xml:space="preserve">Consumo Total (W)</t>
   </si>
   <si>
-    <t xml:space="preserve">Corriente de Alimentación equivalente(mA)</t>
+    <t xml:space="preserve">Corriente de Alimentación Equivalente (mA)</t>
   </si>
   <si>
     <t xml:space="preserve">Consumo Buck2 (W)</t>
@@ -139,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,11 +149,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,7 +207,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,15 +232,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,7 +244,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,20 +283,19 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C13:C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.015306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="111.09693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,7 +406,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="n">
@@ -509,7 +481,7 @@
       <c r="C12" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="6" t="n">
         <f aca="false">B13*D13</f>
         <v>0</v>
       </c>
@@ -530,10 +502,10 @@
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="4" t="n">
@@ -545,7 +517,7 @@
       <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="4" t="n">
@@ -559,7 +531,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -567,15 +539,15 @@
       <c r="A28" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -685,9 +657,9 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
@@ -700,7 +672,7 @@
       <c r="A41" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="10" t="n">
         <f aca="false">E39*C37/1000</f>
         <v>0.576</v>
       </c>
@@ -709,7 +681,7 @@
       <c r="A42" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="12" t="n">
+      <c r="B42" s="11" t="n">
         <f aca="false">10*B41/90</f>
         <v>0.064</v>
       </c>
@@ -718,7 +690,7 @@
       <c r="A43" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="13" t="n">
+      <c r="B43" s="12" t="n">
         <f aca="false">100*B41/90</f>
         <v>0.64</v>
       </c>
@@ -728,8 +700,26 @@
         <v>26</v>
       </c>
       <c r="B44" s="0" t="n">
-        <f aca="false">B43/24*1000</f>
-        <v>26.6666666666667</v>
+        <f aca="false">B43/12*1000</f>
+        <v>53.3333333333333</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <f aca="false">B47*D47</f>
+        <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +758,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="4" t="n">
@@ -804,9 +794,9 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
@@ -819,7 +809,7 @@
       <c r="A58" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="14" t="n">
+      <c r="B58" s="13" t="n">
         <f aca="false">E55*C54/1000</f>
         <v>1.27894</v>
       </c>
@@ -828,7 +818,7 @@
       <c r="A59" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="13" t="n">
+      <c r="B59" s="12" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -836,7 +826,7 @@
       <c r="A60" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="13" t="n">
+      <c r="B60" s="12" t="n">
         <f aca="false">5.4</f>
         <v>5.4</v>
       </c>
@@ -868,7 +858,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" display="12v@500mA"/>
+    <hyperlink ref="C18" r:id="rId1" display="12v@500mA "/>
     <hyperlink ref="B28" r:id="rId2" display="https://www.pidramble.com/wiki/benchmarks/power-consumption"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tablas/AutonomíadelRbot.xlsx
+++ b/tablas/AutonomíadelRbot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t xml:space="preserve">Componente</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Consumo Buck 1 (W)</t>
   </si>
   <si>
-    <t xml:space="preserve">Perdidas por Conversión</t>
+    <t xml:space="preserve">Perdidas por Conversión (W)</t>
   </si>
   <si>
     <t xml:space="preserve">Consumo Total (W)</t>
@@ -103,13 +103,7 @@
     <t xml:space="preserve">Corriente de Alimentación Equivalente (mA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Consumo Buck2 (W)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriente de Alimentación equivalente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = 450mA</t>
+    <t xml:space="preserve">Consumo Buck 2 (W)</t>
   </si>
 </sst>
 </file>
@@ -126,7 +120,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,14 +141,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,13 +274,13 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.4897959183674"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.4234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8163265306122"/>
@@ -833,10 +824,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
